--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Spp1-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Spp1-Itgb1.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>209.0063303333334</v>
+        <v>0.3399353333333333</v>
       </c>
       <c r="H2">
-        <v>627.018991</v>
+        <v>1.019806</v>
       </c>
       <c r="I2">
-        <v>0.6751081226665357</v>
+        <v>0.09929991924017606</v>
       </c>
       <c r="J2">
-        <v>0.6751081226665357</v>
+        <v>0.09929991924017606</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>112.513392</v>
+        <v>61.04160633333334</v>
       </c>
       <c r="N2">
-        <v>337.540176</v>
+        <v>183.124819</v>
       </c>
       <c r="O2">
-        <v>0.3275312977368564</v>
+        <v>0.2043613460574534</v>
       </c>
       <c r="P2">
-        <v>0.3275312977368564</v>
+        <v>0.2043613460574534</v>
       </c>
       <c r="Q2">
-        <v>23516.01117527582</v>
+        <v>20.75019879612378</v>
       </c>
       <c r="R2">
-        <v>211644.1005774824</v>
+        <v>186.751789165114</v>
       </c>
       <c r="S2">
-        <v>0.2211190395296633</v>
+        <v>0.0202930651593188</v>
       </c>
       <c r="T2">
-        <v>0.2211190395296633</v>
+        <v>0.0202930651593188</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>209.0063303333334</v>
+        <v>0.3399353333333333</v>
       </c>
       <c r="H3">
-        <v>627.018991</v>
+        <v>1.019806</v>
       </c>
       <c r="I3">
-        <v>0.6751081226665357</v>
+        <v>0.09929991924017606</v>
       </c>
       <c r="J3">
-        <v>0.6751081226665357</v>
+        <v>0.09929991924017606</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>318.943398</v>
       </c>
       <c r="O3">
-        <v>0.3094859589441663</v>
+        <v>0.3559304658284363</v>
       </c>
       <c r="P3">
-        <v>0.3094859589441664</v>
+        <v>0.3559304658284363</v>
       </c>
       <c r="Q3">
-        <v>22220.39640000794</v>
+        <v>36.14004343786533</v>
       </c>
       <c r="R3">
-        <v>199983.5676000714</v>
+        <v>325.260390940788</v>
       </c>
       <c r="S3">
-        <v>0.2089364847344487</v>
+        <v>0.03534386651188197</v>
       </c>
       <c r="T3">
-        <v>0.2089364847344487</v>
+        <v>0.03534386651188198</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>209.0063303333334</v>
+        <v>0.3399353333333333</v>
       </c>
       <c r="H4">
-        <v>627.018991</v>
+        <v>1.019806</v>
       </c>
       <c r="I4">
-        <v>0.6751081226665357</v>
+        <v>0.09929991924017606</v>
       </c>
       <c r="J4">
-        <v>0.6751081226665357</v>
+        <v>0.09929991924017606</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>124.6916553333333</v>
+        <v>131.3384093333333</v>
       </c>
       <c r="N4">
-        <v>374.074966</v>
+        <v>394.015228</v>
       </c>
       <c r="O4">
-        <v>0.3629827433189773</v>
+        <v>0.4397081881141102</v>
       </c>
       <c r="P4">
-        <v>0.3629827433189773</v>
+        <v>0.4397081881141103</v>
       </c>
       <c r="Q4">
-        <v>26061.34530440882</v>
+        <v>44.64656595619643</v>
       </c>
       <c r="R4">
-        <v>234552.1077396793</v>
+        <v>401.819093605768</v>
       </c>
       <c r="S4">
-        <v>0.2450525984024238</v>
+        <v>0.04366298756897529</v>
       </c>
       <c r="T4">
-        <v>0.2450525984024238</v>
+        <v>0.04366298756897529</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>4.205225</v>
       </c>
       <c r="I5">
-        <v>0.004527744128790482</v>
+        <v>0.4094685684206303</v>
       </c>
       <c r="J5">
-        <v>0.004527744128790482</v>
+        <v>0.4094685684206303</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>112.513392</v>
+        <v>61.04160633333334</v>
       </c>
       <c r="N5">
-        <v>337.540176</v>
+        <v>183.124819</v>
       </c>
       <c r="O5">
-        <v>0.3275312977368564</v>
+        <v>0.2043613460574534</v>
       </c>
       <c r="P5">
-        <v>0.3275312977368564</v>
+        <v>0.2043613460574534</v>
       </c>
       <c r="Q5">
-        <v>157.7147096244</v>
+        <v>85.56456299769722</v>
       </c>
       <c r="R5">
-        <v>1419.4323866196</v>
+        <v>770.0810669792751</v>
       </c>
       <c r="S5">
-        <v>0.001482977910323179</v>
+        <v>0.08367954781065848</v>
       </c>
       <c r="T5">
-        <v>0.001482977910323179</v>
+        <v>0.08367954781065848</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>4.205225</v>
       </c>
       <c r="I6">
-        <v>0.004527744128790482</v>
+        <v>0.4094685684206303</v>
       </c>
       <c r="J6">
-        <v>0.004527744128790482</v>
+        <v>0.4094685684206303</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>318.943398</v>
       </c>
       <c r="O6">
-        <v>0.3094859589441663</v>
+        <v>0.3559304658284363</v>
       </c>
       <c r="P6">
-        <v>0.3094859589441664</v>
+        <v>0.3559304658284363</v>
       </c>
       <c r="Q6">
         <v>149.0254167616166</v>
@@ -818,10 +818,10 @@
         <v>1341.22875085455</v>
       </c>
       <c r="S6">
-        <v>0.001401273233552541</v>
+        <v>0.1457423383000579</v>
       </c>
       <c r="T6">
-        <v>0.001401273233552541</v>
+        <v>0.1457423383000579</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>4.205225</v>
       </c>
       <c r="I7">
-        <v>0.004527744128790482</v>
+        <v>0.4094685684206303</v>
       </c>
       <c r="J7">
-        <v>0.004527744128790482</v>
+        <v>0.4094685684206303</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>124.6916553333333</v>
+        <v>131.3384093333333</v>
       </c>
       <c r="N7">
-        <v>374.074966</v>
+        <v>394.015228</v>
       </c>
       <c r="O7">
-        <v>0.3629827433189773</v>
+        <v>0.4397081881141102</v>
       </c>
       <c r="P7">
-        <v>0.3629827433189773</v>
+        <v>0.4397081881141103</v>
       </c>
       <c r="Q7">
-        <v>174.7854887663722</v>
+        <v>184.1025207962555</v>
       </c>
       <c r="R7">
-        <v>1573.06939889735</v>
+        <v>1656.9226871663</v>
       </c>
       <c r="S7">
-        <v>0.001643492984914762</v>
+        <v>0.1800466823099139</v>
       </c>
       <c r="T7">
-        <v>0.001643492984914762</v>
+        <v>0.180046682309914</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>99.18134533333331</v>
+        <v>1.681642333333333</v>
       </c>
       <c r="H8">
-        <v>297.5440359999999</v>
+        <v>5.044927</v>
       </c>
       <c r="I8">
-        <v>0.3203641332046737</v>
+        <v>0.4912315123391937</v>
       </c>
       <c r="J8">
-        <v>0.3203641332046737</v>
+        <v>0.4912315123391937</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>112.513392</v>
+        <v>61.04160633333334</v>
       </c>
       <c r="N8">
-        <v>337.540176</v>
+        <v>183.124819</v>
       </c>
       <c r="O8">
-        <v>0.3275312977368564</v>
+        <v>0.2043613460574534</v>
       </c>
       <c r="P8">
-        <v>0.3275312977368564</v>
+        <v>0.2043613460574534</v>
       </c>
       <c r="Q8">
-        <v>11159.2295865767</v>
+        <v>102.6501493048015</v>
       </c>
       <c r="R8">
-        <v>100433.0662791903</v>
+        <v>923.8513437432132</v>
       </c>
       <c r="S8">
-        <v>0.1049292802968699</v>
+        <v>0.1003887330874762</v>
       </c>
       <c r="T8">
-        <v>0.1049292802968699</v>
+        <v>0.1003887330874762</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>99.18134533333331</v>
+        <v>1.681642333333333</v>
       </c>
       <c r="H9">
-        <v>297.5440359999999</v>
+        <v>5.044927</v>
       </c>
       <c r="I9">
-        <v>0.3203641332046737</v>
+        <v>0.4912315123391937</v>
       </c>
       <c r="J9">
-        <v>0.3203641332046737</v>
+        <v>0.4912315123391937</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>318.943398</v>
       </c>
       <c r="O9">
-        <v>0.3094859589441663</v>
+        <v>0.3559304658284363</v>
       </c>
       <c r="P9">
-        <v>0.3094859589441664</v>
+        <v>0.3559304658284363</v>
       </c>
       <c r="Q9">
-        <v>10544.41176627492</v>
+        <v>178.7829066713273</v>
       </c>
       <c r="R9">
-        <v>94899.70589647432</v>
+        <v>1609.046160041946</v>
       </c>
       <c r="S9">
-        <v>0.09914820097616506</v>
+        <v>0.1748442610164964</v>
       </c>
       <c r="T9">
-        <v>0.09914820097616507</v>
+        <v>0.1748442610164965</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>99.18134533333331</v>
+        <v>1.681642333333333</v>
       </c>
       <c r="H10">
-        <v>297.5440359999999</v>
+        <v>5.044927</v>
       </c>
       <c r="I10">
-        <v>0.3203641332046737</v>
+        <v>0.4912315123391937</v>
       </c>
       <c r="J10">
-        <v>0.3203641332046737</v>
+        <v>0.4912315123391937</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>124.6916553333333</v>
+        <v>131.3384093333333</v>
       </c>
       <c r="N10">
-        <v>374.074966</v>
+        <v>394.015228</v>
       </c>
       <c r="O10">
-        <v>0.3629827433189773</v>
+        <v>0.4397081881141102</v>
       </c>
       <c r="P10">
-        <v>0.3629827433189773</v>
+        <v>0.4397081881141103</v>
       </c>
       <c r="Q10">
-        <v>12367.08612780031</v>
+        <v>220.8642291275951</v>
       </c>
       <c r="R10">
-        <v>111303.7751502028</v>
+        <v>1987.778062148356</v>
       </c>
       <c r="S10">
-        <v>0.1162866519316387</v>
+        <v>0.215998518235221</v>
       </c>
       <c r="T10">
-        <v>0.1162866519316387</v>
+        <v>0.215998518235221</v>
       </c>
     </row>
   </sheetData>
